--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_010.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_010.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295023AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Personnel evacuation</t>
-  </si>
-  <si>
-    <t>(700000AA1.07) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) Emergency generators (diesel/jet)</t>
-  </si>
-  <si>
-    <t>(295006AA2.03) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295031EK2.22) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Shutdown cooling system (RHR shutdown cooling mode)</t>
-  </si>
-  <si>
-    <t>(295025EK1.07) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Pressure control strategies</t>
-  </si>
-  <si>
-    <t>(295003AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Reactor cooldown</t>
-  </si>
-  <si>
-    <t>(295026EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) HPCI</t>
-  </si>
-  <si>
-    <t>(295037EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295001AK2.01) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Recirculation system</t>
-  </si>
-  <si>
-    <t>(295027EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Primary containment integrity</t>
-  </si>
-  <si>
-    <t>(295030EK3.07) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) NPSH/vortex limits</t>
-  </si>
-  <si>
-    <t>(295021AA1.04) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Alternate decay heat removal systems</t>
-  </si>
-  <si>
-    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295018AK2.04) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Reactor recirculation system</t>
-  </si>
-  <si>
-    <t>(295038EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Filtered vs. nonfiltered release</t>
-  </si>
-  <si>
-    <t>(295019AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Alignment of backup air systems</t>
-  </si>
-  <si>
-    <t>(295024EA1.07) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) PCIS/NSSSS</t>
-  </si>
-  <si>
-    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295029EK2.01) Knowledge of the relationship between the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
-  </si>
-  <si>
-    <t>(295008AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Component erosion/damage</t>
-  </si>
-  <si>
-    <t>(295032EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295007AA1.07) Ability to operate and/or monitor the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(295035EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Secondary containment pressure</t>
-  </si>
-  <si>
-    <t>(217000A2.15) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Steam line break</t>
-  </si>
-  <si>
-    <t>(215003K2.01) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) IRM channels/detectors</t>
-  </si>
-  <si>
-    <t>(263000K3.03) Knowledge of the effect that a loss or malfunction of the (SF6 DC) DC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Systems with DC components (e.g., valves, motors, solenoids, instruments)</t>
-  </si>
-  <si>
-    <t>(261000K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Fuel handling building pressure changes</t>
-  </si>
-  <si>
-    <t>(205000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.5 / 45.5) Heat exchanger temperatures</t>
-  </si>
-  <si>
-    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(262001A3.02) Ability to monitor automatic operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Bus transfer</t>
-  </si>
-  <si>
-    <t>(510000K4.06) Knowledge of (SF4 SWS*) SERVICE WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Alternate discharge pathway</t>
-  </si>
-  <si>
-    <t>(264000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Fire protection system</t>
-  </si>
-  <si>
-    <t>(209001K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Loss of AC electrical distribution system</t>
-  </si>
-  <si>
-    <t>(209002A4.05) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Manual initiation controls</t>
-  </si>
-  <si>
-    <t>(203000A2.20) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Surveillance acceptance criteria not being met</t>
-  </si>
-  <si>
-    <t>(259002K2.01) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Reactor water level control system</t>
-  </si>
-  <si>
-    <t>(211000K3.04) Knowledge of the effect that a loss or malfunction of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Jet pump differential pressure (BWR 3, 4, 5, 6)</t>
-  </si>
-  <si>
-    <t>(215004K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.5 / 45.3) Changing detector position</t>
-  </si>
-  <si>
-    <t>(215005A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.5 / 45.5) Recirculation flow control valve position (BWR 5, 6)</t>
-  </si>
-  <si>
-    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (291007K1.01) DEMINERALIZERS AND ION EXCHANGERS (CFR: 41.3) Effect of excessive differential pressure on demineralizer performance</t>
-  </si>
-  <si>
-    <t>(223002A3.02) Ability to monitor automatic operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.7 / 45.7) Valve closures</t>
-  </si>
-  <si>
-    <t>(239002K4.06) Knowledge of (SF3 SRV) SAFETY RELIEF VALVES design features and/or interlocks that provide for the following: (CFR: 41.7) Detection of valve leakage</t>
-  </si>
-  <si>
-    <t>(218000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) LPCS system</t>
-  </si>
-  <si>
-    <t>(212000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.7 / 45.7) DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(300000A4.02) Ability to manually operate and/or monitor the (SF8 IA) INSTRUMENT AIR SYSTEM in the control room: (CFR: 41.8 / 45.5 to 45.8) Instrument air compressors</t>
-  </si>
-  <si>
-    <t>(217000A2.16) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low condensate storage tank level</t>
-  </si>
-  <si>
-    <t>(215003A3.03) Ability to monitor automatic operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) SCRAM signals</t>
-  </si>
-  <si>
-    <t>(263000K3.02) Knowledge of the effect that a loss or malfunction of the (SF6 DC) DC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Operationally significant systems using DC control power</t>
-  </si>
-  <si>
-    <t>(261000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Secondary containment pressure changes</t>
-  </si>
-  <si>
-    <t>(233000K6.12) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP: (CFR: 41.7 / 45.7) Alternate decay heat removal system</t>
-  </si>
-  <si>
-    <t>(201001A4.01) Ability to manually operate and/or monitor the (SF1 CRDH) CRD HYDRAULIC SYSTEM in the control room: (CFR: 41.5-7 / 41.9 / 41.10 / 45.1-6 / 45.8 / 45.12-13) CRD pumps</t>
-  </si>
-  <si>
-    <t>(201003A2.02) Ability to (a) predict the impacts of the following on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1-6 / 45.1-6) Uncoupled rod</t>
-  </si>
-  <si>
-    <t>(202001K2.03) (SF1, SF4 RS) RECIRCULATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Recirculation system valves</t>
-  </si>
-  <si>
-    <t>(256000K3.15) Knowledge of the effect that a loss or malfunction of the (SF2 CDS) CONDENSATE SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) ECCS keep fill system</t>
-  </si>
-  <si>
-    <t>(204000K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM : (CFR: 41.5 / 45.3) Conductivity monitoring</t>
-  </si>
-  <si>
-    <t>(245000A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS including: (CFR: 41.5 / 45.5) Hydrogen gas temperature</t>
-  </si>
-  <si>
-    <t>(510001) (SF8 CWS*) CIRCULATING WATER SYSTEM (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
-  </si>
-  <si>
-    <t>(241000A3.10) Ability to monitor automatic operation of the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM including: (CFR: 41.7 / 45.7) Main stop valve operation</t>
-  </si>
-  <si>
-    <t>(288000K4.03) Knowledge of (SF9 PVS) PLANT VENTILATION SYSTEMS design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic starting and stopping of fans</t>
-  </si>
-  <si>
-    <t>(268000K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 RW) RADWASTE SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RWCU system</t>
-  </si>
-  <si>
-    <t>(G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292005K1.02) CONTROL RODS (CFR: 41.1) Name the material used for thermal neutron absorption in control rods</t>
-  </si>
-  <si>
-    <t>(292006K1.05) FISSION PRODUCT POISONS (CFR: 41.1) Describe the following processes and state their effect on reactor operations: --Equilibrium xenon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(292003K1.08) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Given the power equation, solve problems for power </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(293009K1.25) CORE THERMAL LIMITS (CFR: 41.14) (MCPR) Describe the effects of local power distribution </t>
-  </si>
-  <si>
-    <t>(293006K1.09) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Discuss relationship between pump speed, head, flow, and power without using formulas or calculations</t>
-  </si>
-  <si>
-    <t>(293005K1.05) THERMODYNAMIC CYCLES (CFR: 41.14) State the advantages of moisture separators/reheaters and feedwater heaters for a typical steam cycle</t>
-  </si>
-  <si>
-    <t>(295023AA2.02) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Fuel pool level</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295006AA2.05) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Whether a reactor SCRAM has occurred</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295031EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295003AA2.01) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of AC power</t>
-  </si>
-  <si>
-    <t>(295011AA2.02) Ability to determine and/or interpret the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
-  </si>
-  <si>
-    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295017AA2.02) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Total number of curies released or release rate/duration</t>
-  </si>
-  <si>
-    <t>(205000A2.03) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of AC power</t>
-  </si>
-  <si>
-    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(262001A2.05) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Bus grounds /faults</t>
-  </si>
-  <si>
-    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(264000A2.13) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of starting air</t>
-  </si>
-  <si>
-    <t>(239003) (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM  (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(239001A2.04) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Main steam line low pressure</t>
-  </si>
-  <si>
-    <t>(290003) (SF9 CRV) CONTROL ROOM VENTILATION (G2.4.50) EMERGENCY PROCEDURES / PLAN Ability to verify system alarm setpoints and operate controls identified in the alarm response procedure (CFR: 41.10 / 43.5 / 45.3)</t>
+    <t>(295018AA1.05) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Reactor recirculation system</t>
+  </si>
+  <si>
+    <t>(600000AA2.03) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Fire alarm</t>
+  </si>
+  <si>
+    <t>(295004AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Redundant DC power supplies</t>
+  </si>
+  <si>
+    <t>(295027EK2.03) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation/cooling</t>
+  </si>
+  <si>
+    <t>(295030EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Suppression pool makeup system(s) operation</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295001AA1.07) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) Nuclear boiler instrumentation system </t>
+  </si>
+  <si>
+    <t>(295025EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
+  </si>
+  <si>
+    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295024EK2.20) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(295019AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Service air isolations</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(295003AA1.06) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) AC electrical loads</t>
+  </si>
+  <si>
+    <t>(700000AA2.06) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator frequency limitations</t>
+  </si>
+  <si>
+    <t>(295005AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor level control</t>
+  </si>
+  <si>
+    <t>(295006AK2.01) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(295016AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Abandonment criteria</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295023AA1.02) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup system</t>
+  </si>
+  <si>
+    <t>(295021AA2.04) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water temperature</t>
+  </si>
+  <si>
+    <t>(295013AK2.03) Knowledge of the relationship between the (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. and the following systems or components: (CFR: 41.7 / 45.8) RCIC/HPCI operation</t>
+  </si>
+  <si>
+    <t>(295007AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Reducing reactor power</t>
+  </si>
+  <si>
+    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295008AA1.02) Ability to operate and/or monitor the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.7 / 45.6) Reactor water cleanup (ability to drain)</t>
+  </si>
+  <si>
+    <t>(295036EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Operability of components within the affected area</t>
+  </si>
+  <si>
+    <t>(500000EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.8 to 41.10) Hydrogen ignition/deflagration</t>
+  </si>
+  <si>
+    <t>(215005K4.10) Knowledge of (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR design features and/or interlocks that provide for the following: (CFR: 41.7) Bypassing an LPRM, APRM, or OPRM channel</t>
+  </si>
+  <si>
+    <t>(211000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Explosive squib valves status</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(264000A4.04) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Starting, loading, unloading, and stopping of emergency generator</t>
+  </si>
+  <si>
+    <t>(223002K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) Nuclear boiler instrumentation</t>
+  </si>
+  <si>
+    <t>(259002K2.02) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Feedwater coolant injection (FWCI) initiation logic</t>
+  </si>
+  <si>
+    <t>(209001A2.01) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump trips</t>
+  </si>
+  <si>
+    <t>(262002K3.08) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(262001K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Emergency generators</t>
+  </si>
+  <si>
+    <t>(209002A3.01) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(205000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.5 / 45.3) Decay heat removal</t>
+  </si>
+  <si>
+    <t>(218000K4.01) Knowledge of (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of an inadvertent initiation of ADS logic</t>
+  </si>
+  <si>
+    <t>(263000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (291006K1.15) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Effects of heat exchanger tube fouling</t>
+  </si>
+  <si>
+    <t>(212000A4.13) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Individual control rod SCRAM testing</t>
+  </si>
+  <si>
+    <t>(300000K6.13) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.8 / 45.7) Service air cross-connect valve</t>
+  </si>
+  <si>
+    <t>(215004K2.02) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Detector drive modules</t>
+  </si>
+  <si>
+    <t>(217000A2.09) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of vacuum pump</t>
+  </si>
+  <si>
+    <t>(400000K3.09) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Low-pressure core spray system</t>
+  </si>
+  <si>
+    <t>(261000K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) Fire protection system</t>
+  </si>
+  <si>
+    <t>(215003A3.04) Ability to monitor automatic operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Control rod block signals</t>
+  </si>
+  <si>
+    <t>(510000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Flood prevention</t>
+  </si>
+  <si>
+    <t>(215005K4.01) Knowledge of (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR design features and/or interlocks that provide for the following: (CFR: 41.7) Rod withdrawal blocks</t>
+  </si>
+  <si>
+    <t>(211000A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(264000A4.06) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Droop setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(204000A3.01) Ability to monitor automatic operation of the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM including: (CFR: 41.7 / 45.7) System pressure control for low pressure piping </t>
+  </si>
+  <si>
+    <t>(234000K5.10) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 FH) FUEL HANDLING: (CFR: 41.5 / 45.3) Nuclear instrument system response to core offload/reload</t>
+  </si>
+  <si>
+    <t>(219000K4.08) Knowledge of (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE design features and/or interlocks that provide for the following: (CFR: 41.7) Adequate pump net positive suction head</t>
+  </si>
+  <si>
+    <t>(286000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 FPS) FIRE PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) Fire water tank pressure</t>
+  </si>
+  <si>
+    <t>(216000) (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION (291004K1.12) PUMPS (CFR: 41.3) (CENTRIFUGAL) \u201cRunout\u201d of a centrifugal pump (definition, indications, causes, effects, and corrective measures)</t>
+  </si>
+  <si>
+    <t>(256000A4.15) Ability to manually operate and/or monitor the (SF2 CDS) CONDENSATE SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Air ejectors</t>
+  </si>
+  <si>
+    <t>(271000K6.15) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 OG) OFFGAS SYSTEM: (CFR: 41.5 / 41.7 / 45.7) Main steam system</t>
+  </si>
+  <si>
+    <t>(268000K2.01) (SF9 RW) RADWASTE SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Radiological release isolation valves</t>
+  </si>
+  <si>
+    <t>(201001A2.07) Ability to (a) predict the impacts of the following on the (SF1 CRDH) CRD HYDRAULIC SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.2 / 41.5-7 / 41.10 / 41.12-13 / 45.1-6) Flow control valve failure</t>
+  </si>
+  <si>
+    <t>(223001K3.11) Knowledge of the effect that a loss or malfunction of the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) LPCS</t>
+  </si>
+  <si>
+    <t>(215001K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 TIP) TRAVERSING IN CORE PROBE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
   </si>
   <si>
     <t>(G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
   </si>
   <si>
-    <t>(G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292006K1.02) FISSION PRODUCT POISONS (CFR: 41.1) State the characteristics of xenon-135 as a fission product poison</t>
+  </si>
+  <si>
+    <t>(292002K1.11) NEUTRON LIFE CYCLE (CFR: 41.1) Define reactivity</t>
+  </si>
+  <si>
+    <t>(292003K1.09) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define doubling time and calculate it using the power</t>
+  </si>
+  <si>
+    <t>(293006K1.22) FLUID STATICS AND DYNAMICS (CFR: 41.14) Define or explain the following term or concept: Two-phase flow</t>
+  </si>
+  <si>
+    <t>(293003K1.07) STEAM (CFR: 41.14) Define the following term: Saturated liquid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(293007K1.01) HEAT TRANSFER (CFR: 41.14) (HEAT TRANSFER) Describe three mechanisms of heat transfer </t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(600000AA2.10) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Time limit of long-term-breathing air system for control room</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295027EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(295038EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
+  </si>
+  <si>
+    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
+  </si>
+  <si>
+    <t>(295029EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Drywell/containment water level</t>
+  </si>
+  <si>
+    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.4.50) EMERGENCY PROCEDURES / PLAN Ability to verify system alarm setpoints and operate controls identified in the alarm response procedure (CFR: 41.10 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(259002A2.09) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) FWCI system failure alarm</t>
+  </si>
+  <si>
+    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(262002A2.03) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Frequency malfunctions in the system</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(239001A2.12) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) PCIS/NSSSS actuation</t>
+  </si>
+  <si>
+    <t>(202001) (SF1, SF4 RS) RECIRCULATION SYSTEM (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(230000A2.04) Ability to (a) predict the impacts of the following on the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve openings due to malfunction(s)</t>
+  </si>
+  <si>
+    <t>(G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
   </si>
   <si>
     <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>K1</t>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>A3</t>
   </si>
   <si>
     <t>K5</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
     <t>295023</t>
   </si>
   <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
     <t>295021</t>
   </si>
   <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295024</t>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295007</t>
   </si>
   <si>
     <t>295033</t>
   </si>
   <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>295032</t>
+  </si>
+  <si>
     <t>295029</t>
   </si>
   <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>201003</t>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>239001</t>
   </si>
   <si>
     <t>202001</t>
   </si>
   <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295017</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>290003</t>
+    <t>230000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,7 +1511,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D33" t="s">
         <v>108</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1596,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D38" t="s">
         <v>115</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1633,7 +1633,7 @@
         <v>3.3</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1650,7 +1650,7 @@
         <v>2.8</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1667,7 +1667,7 @@
         <v>3.2</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1701,7 +1701,7 @@
         <v>2.7</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,7 +1766,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D48" t="s">
         <v>114</v>
@@ -1783,7 +1783,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,7 +1868,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="D54" t="s">
         <v>114</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D55" t="s">
         <v>115</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,7 +1987,7 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="D61" t="s">
         <v>108</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D85" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D89" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
